--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Madewell.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Madewell.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_Factory\code-fix\desktop-functional-tests\ContentTestingSheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="2970"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:B7"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Title</t>
   </si>
@@ -40,715 +44,7 @@
     <t>Page Load Time</t>
   </si>
   <si>
-    <t>Top Nav Links Validation</t>
-  </si>
-  <si>
-    <t>For Women</t>
-  </si>
-  <si>
-    <t>For Men</t>
-  </si>
-  <si>
-    <t>For Girls</t>
-  </si>
-  <si>
-    <t>For Boys</t>
-  </si>
-  <si>
-    <t>On the blog</t>
-  </si>
-  <si>
-    <t>Verify all the Stwwwies Should navigate  to expected page</t>
-  </si>
-  <si>
-    <t>Order Status</t>
-  </si>
-  <si>
-    <t>Shipping &amp; Handling</t>
-  </si>
-  <si>
-    <t>Returns &amp; Exchanges</t>
-  </si>
-  <si>
-    <t>International orders</t>
-  </si>
-  <si>
-    <t>Need Some Help?</t>
-  </si>
-  <si>
-    <t>Request A style guide</t>
-  </si>
-  <si>
-    <t>The JCREW Gift card</t>
-  </si>
-  <si>
-    <t>Our Services</t>
-  </si>
-  <si>
-    <t>size charts</t>
-  </si>
-  <si>
-    <t>Exclusive Offers &amp; Promotions</t>
-  </si>
-  <si>
-    <t>Store locator</t>
-  </si>
-  <si>
-    <t>Jcrew Credit card details</t>
-  </si>
-  <si>
-    <t>Apply today and get 15% off</t>
-  </si>
-  <si>
-    <t>Madewell</t>
-  </si>
-  <si>
-    <t>Our Story</t>
-  </si>
-  <si>
-    <t>Careers</t>
-  </si>
-  <si>
-    <t>https://jobs.jcrew.com/</t>
-  </si>
-  <si>
-    <t>Social Responsibility</t>
-  </si>
-  <si>
-    <t>Invester relations</t>
-  </si>
-  <si>
-    <t>CARDIGANS</t>
-  </si>
-  <si>
-    <t>BLAZERS</t>
-  </si>
-  <si>
-    <t>MEN'S SWEATERS</t>
-  </si>
-  <si>
-    <t>BUSINESS CASUAL Fwww WOMEN</t>
-  </si>
-  <si>
-    <t>MEN'S SUITS</t>
-  </si>
-  <si>
-    <t>Twitter Icon</t>
-  </si>
-  <si>
-    <t>tumblr icon</t>
-  </si>
-  <si>
-    <t>Pinterset</t>
-  </si>
-  <si>
-    <t>instagram</t>
-  </si>
-  <si>
-    <t>google + Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spotify </t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>Read more</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>Privacy Policy</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/index.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/signin/signin.jsp?FOLDER%3C%3Efolder_id=2534374302023782&amp;bmUID=ljuwi76</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/account/new_account.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/signin/signin.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/intl/context_chooser.jsp?FOLDER%3C%3Efolder_id=2534374302023782&amp;bmUID=ljuwiMY</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/userwishlist/tutorial.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/index.jsp?navLoc=top_nav</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/shopmadewell.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/DENIMBAR.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/TEESANDMORE.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/DRESSES.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SWEATERS.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/BAGS.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/intimatespajamas.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/search2/index.jsp?N=21&amp;Nsrt=3</t>
-  </si>
-  <si>
-    <t>https://blog.madewell.com/</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/footie/ContactUs.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/help/order_status.jsp</t>
-  </si>
-  <si>
-    <t>https://stores.madewell.com/?</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/sizecharts/main.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/help/shipping_handling.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/help/returns_exchanges.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/help/international_orders.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/monogramming.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/footer/giftcard.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/promo.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_inside_scoop/ALLABOUTMADEWELL_sm.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/dowell.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/EVENTS_sm.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#denimmadewell</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/r/login/</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/footer/getacatalog.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/madewell_insider.jsp</t>
-  </si>
-  <si>
-    <t>http://investors.madewell.com/phoenix.zhtml?c=135311&amp;p=irol-irhome&amp;ver=m</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/footer/socialresponsibility.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/help/wholesale_sm.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/women/denimbar</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/sneakers.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/women/bags/totes</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/women/teesandmore</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/boots.jsp</t>
-  </si>
-  <si>
-    <t>https://twitter.com/madewell1937</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/madewell</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/madewell1937/</t>
-  </si>
-  <si>
-    <t>https://www.pinterest.com/madewell/</t>
-  </si>
-  <si>
-    <t>http://madewell.tumblr.com/</t>
-  </si>
-  <si>
-    <t>https://plus.google.com/+Madewell</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/user/MadewellMusings</t>
-  </si>
-  <si>
-    <t>https://play.spotify.com/user/madewell</t>
-  </si>
-  <si>
-    <t>https://www.cpsc.gov/Recalls/2015/Madewell-Expands-Recall-of-Womens-Sandals/</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/footer/termsofuse.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/footer/privacy.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/flatpages/social_res_april4.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/footer/sitemap.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/intl/context_chooser.jsp?bmUID=lp7GQKL</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/latestandgreatest.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/shirtstops.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/sweaters.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/teestanks.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/jackets.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/denim.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/dressesskirts.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/pantsshorts.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/shoes.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/jewelry.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/bags.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/intimatespajamas.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/lounge.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/homegift.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/accessories.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/newarrivals/sunglasses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/fall2017collection.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/shopbylooks.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/sezane.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxgirlsinc.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/veja.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/carhartt.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/adidas.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/aceandjig.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/apieceapart.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/biltmore.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/caroncallahan.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/chimala.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/converse.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/karenwalker.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/lasbayadas.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/lndr.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/loq.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/armorlux.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxhanselfrombasel.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxstillhouse.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxwinden.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/marahoffman.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/pale.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/penfield.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/rivetthread.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/soludos.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/stutterheim.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/splits59.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/tretorn.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/ullaJohnson.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/vans.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/THEMADEWELLESSENTIALS_sm.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/TEESANDMORE/longsleeve.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/TEESANDMORE/shortsleeve.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/TEESANDMORE/tanks.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/TEESANDMORE/bodysuits.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/TEESANDMORE/sweatshirts.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/TEESANDMORE/sweatshirtsandmore.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/TEESANDMORE/teetankdresses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/topsblouses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/buttonuppopovershirts.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/chambraydenim.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SWEATERS/pullovers.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SWEATERS/cardigans.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SWEATERS/tanks.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/Outerwear.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/Jackets.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/denim.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/leather.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/DRESSES/daytonightdresses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/DRESSES/casualdresses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/DRESSES/cocktaildresses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/DRESSES/midimaxidresses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/DRESSES/denimdresses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/DRESSES/jumpsuitsrompers.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SKIRTS.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SKIRTS/mini.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SKIRTS/midimaxi.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/PANTSSHORTS.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/PANTSSHORTS/pants.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/PANTSSHORTS/shorts.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/PANTSSHORTS/leggingssweatpants.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/lounge/tops.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/lounge/bottoms.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/lounge/sneakers.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/lounge/accessories.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/intimatespajamas/bralettes.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/intimatespajamas/undies.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/intimatespajamas/pajamas.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SWIM.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SWIM/bikinis.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SWIM/swimcoverups.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SWIM/beachaccessories.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/skimmersflats.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/heels.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/oxfordloafers.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/clogs.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/weatherboots.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/sandals.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/socks.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/BAGS/crossbodybags.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/BAGS/totes.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/BAGS/backpacks.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/BAGS/satchels.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/BAGS/duffels.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/BAGS/poucheswallets.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/BAGS/iphonecasestech.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/BAGS/bagaccessories.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JEWELRY.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JEWELRY/earrings.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JEWELRY/necklaces.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JEWELRY/bracelets.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JEWELRY/rings.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JEWELRY/demifinejewelry.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/JEWELRY/finejewelry.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/sunglasses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/sunglasses/sunglasses.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/sunglasses/sunglasscases.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES/hats.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES/bandanas.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES/scarves.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES/socksandtights.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES/hair.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES/belts.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES/umbrellas.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES/pins.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/ACCESSORIES/iphonecasestech.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/HOMEGIFT.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/HOMEGIFT/candles.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/HOMEGIFT/cardspaper.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/HOMEGIFT/leatheraccessoriesmonogram.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/HOMEGIFT/denimmonogram.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/HOMEGIFT/greatgiftsunder25.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/HOMEGIFT/splurgygifts.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_category/HOMEGIFT/evenmoregifts.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/DENIMREPORT_sm.jsp</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#everydaymadewell</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#totewell</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#wellheeled</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -841,7 +137,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -858,16 +154,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -1150,16 +437,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="101.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
@@ -1186,11 +473,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
@@ -1198,518 +483,352 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>53</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="A36" s="8"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="A40" s="8"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="A41" s="8"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="12" t="s">
-        <v>83</v>
-      </c>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="12" t="s">
-        <v>84</v>
-      </c>
+      <c r="A44" s="8"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="12" t="s">
-        <v>85</v>
-      </c>
+      <c r="A45" s="8"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1717,9 +836,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1727,9 +844,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1737,9 +852,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1747,9 +860,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1757,9 +868,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1767,9 +876,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1777,9 +884,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1787,9 +892,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1797,9 +900,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1807,9 +908,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1817,9 +916,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="13" t="s">
-        <v>94</v>
-      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1827,9 +924,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1837,9 +932,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1847,9 +940,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1857,9 +948,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="13" t="s">
-        <v>98</v>
-      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1867,9 +956,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1877,9 +964,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1887,9 +972,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1897,9 +980,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="13" t="s">
-        <v>101</v>
-      </c>
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1907,9 +988,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="13" t="s">
-        <v>102</v>
-      </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1917,9 +996,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1927,9 +1004,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="13" t="s">
-        <v>104</v>
-      </c>
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1937,9 +1012,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="13" t="s">
-        <v>105</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1947,9 +1020,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1957,9 +1028,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1967,9 +1036,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1977,9 +1044,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1987,9 +1052,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1997,9 +1060,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2007,9 +1068,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2017,9 +1076,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2027,9 +1084,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2037,9 +1092,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2047,9 +1100,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2057,9 +1108,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2067,9 +1116,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2077,9 +1124,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2087,9 +1132,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2097,9 +1140,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2107,9 +1148,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2117,9 +1156,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2127,9 +1164,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2137,9 +1172,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2147,9 +1180,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="15" t="s">
-        <v>125</v>
-      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2157,9 +1188,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="15" t="s">
-        <v>126</v>
-      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2167,9 +1196,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2177,9 +1204,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="15" t="s">
-        <v>128</v>
-      </c>
+      <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2187,9 +1212,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="15" t="s">
-        <v>129</v>
-      </c>
+      <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2197,9 +1220,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2207,9 +1228,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2217,9 +1236,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2227,9 +1244,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -2237,9 +1252,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2247,9 +1260,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2257,9 +1268,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="15" t="s">
-        <v>136</v>
-      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2267,9 +1276,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -2277,9 +1284,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="15" t="s">
-        <v>138</v>
-      </c>
+      <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -2287,9 +1292,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="15" t="s">
-        <v>139</v>
-      </c>
+      <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -2297,9 +1300,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -2307,9 +1308,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="15" t="s">
-        <v>141</v>
-      </c>
+      <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -2317,9 +1316,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="15" t="s">
-        <v>142</v>
-      </c>
+      <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -2327,9 +1324,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -2337,9 +1332,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -2347,9 +1340,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="15" t="s">
-        <v>145</v>
-      </c>
+      <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -2357,9 +1348,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -2367,9 +1356,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -2377,9 +1364,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="15" t="s">
-        <v>148</v>
-      </c>
+      <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -2387,9 +1372,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -2397,9 +1380,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -2407,9 +1388,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -2417,9 +1396,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="15" t="s">
-        <v>152</v>
-      </c>
+      <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -2427,9 +1404,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -2437,9 +1412,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -2447,9 +1420,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -2457,9 +1428,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -2467,9 +1436,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -2477,9 +1444,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -2487,9 +1452,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -2497,9 +1460,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -2507,9 +1468,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -2517,9 +1476,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -2527,9 +1484,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -2537,9 +1492,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -2547,9 +1500,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -2557,9 +1508,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -2567,9 +1516,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -2577,9 +1524,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="17" t="s">
-        <v>155</v>
-      </c>
+      <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -2587,9 +1532,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="17" t="s">
-        <v>156</v>
-      </c>
+      <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -2597,9 +1540,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="17" t="s">
-        <v>157</v>
-      </c>
+      <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -2607,9 +1548,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="17" t="s">
-        <v>158</v>
-      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -2617,9 +1556,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -2627,9 +1564,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="17" t="s">
-        <v>160</v>
-      </c>
+      <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -2637,9 +1572,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -2647,9 +1580,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -2657,9 +1588,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="17" t="s">
-        <v>162</v>
-      </c>
+      <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -2667,9 +1596,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="17" t="s">
-        <v>163</v>
-      </c>
+      <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -2677,9 +1604,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="17" t="s">
-        <v>164</v>
-      </c>
+      <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -2687,9 +1612,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -2697,9 +1620,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="17" t="s">
-        <v>165</v>
-      </c>
+      <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -2707,9 +1628,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="17" t="s">
-        <v>166</v>
-      </c>
+      <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -2717,9 +1636,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="17" t="s">
-        <v>167</v>
-      </c>
+      <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -2727,9 +1644,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -2737,9 +1652,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="17" t="s">
-        <v>168</v>
-      </c>
+      <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -2747,9 +1660,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="17" t="s">
-        <v>169</v>
-      </c>
+      <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -2757,9 +1668,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="17" t="s">
-        <v>170</v>
-      </c>
+      <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -2767,9 +1676,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="17" t="s">
-        <v>171</v>
-      </c>
+      <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -2777,9 +1684,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -2787,9 +1692,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="17" t="s">
-        <v>172</v>
-      </c>
+      <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -2797,9 +1700,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="17" t="s">
-        <v>173</v>
-      </c>
+      <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -2807,9 +1708,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="17" t="s">
-        <v>174</v>
-      </c>
+      <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -2817,9 +1716,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="17" t="s">
-        <v>175</v>
-      </c>
+      <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -2827,9 +1724,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="17" t="s">
-        <v>176</v>
-      </c>
+      <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -2837,9 +1732,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -2847,9 +1740,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="17" t="s">
-        <v>178</v>
-      </c>
+      <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -2857,9 +1748,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="17" t="s">
-        <v>179</v>
-      </c>
+      <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -2867,9 +1756,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="17" t="s">
-        <v>180</v>
-      </c>
+      <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -2877,9 +1764,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="17" t="s">
-        <v>181</v>
-      </c>
+      <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -2887,9 +1772,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="17" t="s">
-        <v>182</v>
-      </c>
+      <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -2897,9 +1780,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="17" t="s">
-        <v>183</v>
-      </c>
+      <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -2907,9 +1788,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="17" t="s">
-        <v>184</v>
-      </c>
+      <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -2917,9 +1796,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="17" t="s">
-        <v>185</v>
-      </c>
+      <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -2927,9 +1804,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="17" t="s">
-        <v>186</v>
-      </c>
+      <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -2937,9 +1812,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="17" t="s">
-        <v>187</v>
-      </c>
+      <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -2947,9 +1820,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="17" t="s">
-        <v>188</v>
-      </c>
+      <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -2957,9 +1828,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -2967,9 +1836,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -2977,9 +1844,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -2987,9 +1852,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -2997,9 +1860,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -3007,9 +1868,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="17" t="s">
-        <v>193</v>
-      </c>
+      <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -3017,9 +1876,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -3027,9 +1884,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="17" t="s">
-        <v>195</v>
-      </c>
+      <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -3037,9 +1892,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -3047,9 +1900,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -3057,9 +1908,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="17" t="s">
-        <v>91</v>
-      </c>
+      <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -3067,9 +1916,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -3077,9 +1924,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="17" t="s">
-        <v>196</v>
-      </c>
+      <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -3087,9 +1932,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -3097,9 +1940,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="17" t="s">
-        <v>198</v>
-      </c>
+      <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -3107,9 +1948,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="17" t="s">
-        <v>199</v>
-      </c>
+      <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -3117,9 +1956,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="17" t="s">
-        <v>200</v>
-      </c>
+      <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -3127,9 +1964,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="17" t="s">
-        <v>201</v>
-      </c>
+      <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -3137,9 +1972,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="17" t="s">
-        <v>202</v>
-      </c>
+      <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -3147,9 +1980,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -3157,9 +1988,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="17" t="s">
-        <v>203</v>
-      </c>
+      <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -3167,9 +1996,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -3177,9 +2004,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -3187,9 +2012,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="17" t="s">
-        <v>206</v>
-      </c>
+      <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -3197,9 +2020,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="17" t="s">
-        <v>207</v>
-      </c>
+      <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -3207,9 +2028,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="17" t="s">
-        <v>208</v>
-      </c>
+      <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -3217,9 +2036,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="17" t="s">
-        <v>209</v>
-      </c>
+      <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -3227,9 +2044,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="17" t="s">
-        <v>210</v>
-      </c>
+      <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -3237,9 +2052,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="17" t="s">
-        <v>211</v>
-      </c>
+      <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -3247,9 +2060,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="17" t="s">
-        <v>212</v>
-      </c>
+      <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -3257,9 +2068,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -3267,9 +2076,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="17" t="s">
-        <v>214</v>
-      </c>
+      <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -3277,9 +2084,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="17" t="s">
-        <v>215</v>
-      </c>
+      <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -3287,9 +2092,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="17" t="s">
-        <v>216</v>
-      </c>
+      <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -3297,9 +2100,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="17" t="s">
-        <v>217</v>
-      </c>
+      <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -3307,9 +2108,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="17" t="s">
-        <v>218</v>
-      </c>
+      <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -3317,9 +2116,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="17" t="s">
-        <v>219</v>
-      </c>
+      <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -3327,9 +2124,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="17" t="s">
-        <v>220</v>
-      </c>
+      <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -3337,9 +2132,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="17" t="s">
-        <v>221</v>
-      </c>
+      <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -3347,9 +2140,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="17" t="s">
-        <v>222</v>
-      </c>
+      <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -3357,9 +2148,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="17" t="s">
-        <v>223</v>
-      </c>
+      <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -3367,9 +2156,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="17" t="s">
-        <v>224</v>
-      </c>
+      <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -3377,9 +2164,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="17" t="s">
-        <v>225</v>
-      </c>
+      <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -3387,9 +2172,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="17" t="s">
-        <v>226</v>
-      </c>
+      <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -3397,9 +2180,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="17" t="s">
-        <v>227</v>
-      </c>
+      <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -3407,9 +2188,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="17" t="s">
-        <v>228</v>
-      </c>
+      <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -3417,9 +2196,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="17" t="s">
-        <v>229</v>
-      </c>
+      <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -3427,9 +2204,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="17" t="s">
-        <v>230</v>
-      </c>
+      <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -3437,9 +2212,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="17" t="s">
-        <v>231</v>
-      </c>
+      <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -3447,9 +2220,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="17" t="s">
-        <v>232</v>
-      </c>
+      <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -3457,9 +2228,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="17" t="s">
-        <v>233</v>
-      </c>
+      <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -3467,9 +2236,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="17" t="s">
-        <v>234</v>
-      </c>
+      <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -3477,9 +2244,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="17" t="s">
-        <v>235</v>
-      </c>
+      <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -3487,9 +2252,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="17" t="s">
-        <v>236</v>
-      </c>
+      <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -3497,9 +2260,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="17" t="s">
-        <v>237</v>
-      </c>
+      <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -3507,9 +2268,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="17" t="s">
-        <v>238</v>
-      </c>
+      <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -3517,9 +2276,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="17" t="s">
-        <v>65</v>
-      </c>
+      <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -3527,9 +2284,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="17" t="s">
-        <v>239</v>
-      </c>
+      <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -3537,9 +2292,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="17" t="s">
-        <v>79</v>
-      </c>
+      <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -3547,9 +2300,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="17" t="s">
-        <v>240</v>
-      </c>
+      <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -3557,9 +2308,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="17" t="s">
-        <v>241</v>
-      </c>
+      <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -3567,9 +2316,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="17" t="s">
-        <v>242</v>
-      </c>
+      <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -3577,13 +2324,267 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="17" t="s">
-        <v>76</v>
-      </c>
+      <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Madewell.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Madewell.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_Factory\code-fix\desktop-functional-tests\ContentTestingSheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="2970"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:B7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="243">
   <si>
     <t>Title</t>
   </si>
@@ -44,7 +40,715 @@
     <t>Page Load Time</t>
   </si>
   <si>
-    <t/>
+    <t>Top Nav Links Validation</t>
+  </si>
+  <si>
+    <t>For Women</t>
+  </si>
+  <si>
+    <t>For Men</t>
+  </si>
+  <si>
+    <t>For Girls</t>
+  </si>
+  <si>
+    <t>For Boys</t>
+  </si>
+  <si>
+    <t>On the blog</t>
+  </si>
+  <si>
+    <t>Verify all the Stwwwies Should navigate  to expected page</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Shipping &amp; Handling</t>
+  </si>
+  <si>
+    <t>Returns &amp; Exchanges</t>
+  </si>
+  <si>
+    <t>International orders</t>
+  </si>
+  <si>
+    <t>Need Some Help?</t>
+  </si>
+  <si>
+    <t>Request A style guide</t>
+  </si>
+  <si>
+    <t>The JCREW Gift card</t>
+  </si>
+  <si>
+    <t>Our Services</t>
+  </si>
+  <si>
+    <t>size charts</t>
+  </si>
+  <si>
+    <t>Exclusive Offers &amp; Promotions</t>
+  </si>
+  <si>
+    <t>Store locator</t>
+  </si>
+  <si>
+    <t>Jcrew Credit card details</t>
+  </si>
+  <si>
+    <t>Apply today and get 15% off</t>
+  </si>
+  <si>
+    <t>Madewell</t>
+  </si>
+  <si>
+    <t>Our Story</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>https://jobs.jcrew.com/</t>
+  </si>
+  <si>
+    <t>Social Responsibility</t>
+  </si>
+  <si>
+    <t>Invester relations</t>
+  </si>
+  <si>
+    <t>CARDIGANS</t>
+  </si>
+  <si>
+    <t>BLAZERS</t>
+  </si>
+  <si>
+    <t>MEN'S SWEATERS</t>
+  </si>
+  <si>
+    <t>BUSINESS CASUAL Fwww WOMEN</t>
+  </si>
+  <si>
+    <t>MEN'S SUITS</t>
+  </si>
+  <si>
+    <t>Twitter Icon</t>
+  </si>
+  <si>
+    <t>tumblr icon</t>
+  </si>
+  <si>
+    <t>Pinterset</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>google + Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spotify </t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Read more</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/index.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/signin/signin.jsp?FOLDER%3C%3Efolder_id=2534374302023782&amp;bmUID=ljuwi76</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/account/new_account.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/signin/signin.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/intl/context_chooser.jsp?FOLDER%3C%3Efolder_id=2534374302023782&amp;bmUID=ljuwiMY</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/userwishlist/tutorial.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/index.jsp?navLoc=top_nav</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/shopmadewell.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DENIMBAR.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/intimatespajamas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/search2/index.jsp?N=21&amp;Nsrt=3</t>
+  </si>
+  <si>
+    <t>https://blog.madewell.com/</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footie/ContactUs.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/order_status.jsp</t>
+  </si>
+  <si>
+    <t>https://stores.madewell.com/?</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/sizecharts/main.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/shipping_handling.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/returns_exchanges.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/international_orders.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/monogramming.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/giftcard.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/promo.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_inside_scoop/ALLABOUTMADEWELL_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/dowell.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/EVENTS_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#denimmadewell</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/r/login/</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/getacatalog.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/madewell_insider.jsp</t>
+  </si>
+  <si>
+    <t>http://investors.madewell.com/phoenix.zhtml?c=135311&amp;p=irol-irhome&amp;ver=m</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/socialresponsibility.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/wholesale_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/women/denimbar</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/sneakers.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/women/bags/totes</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/women/teesandmore</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/boots.jsp</t>
+  </si>
+  <si>
+    <t>https://twitter.com/madewell1937</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/madewell</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/madewell1937/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/madewell/</t>
+  </si>
+  <si>
+    <t>http://madewell.tumblr.com/</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/+Madewell</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/MadewellMusings</t>
+  </si>
+  <si>
+    <t>https://play.spotify.com/user/madewell</t>
+  </si>
+  <si>
+    <t>https://www.cpsc.gov/Recalls/2015/Madewell-Expands-Recall-of-Womens-Sandals/</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/termsofuse.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/privacy.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/flatpages/social_res_april4.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/sitemap.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/intl/context_chooser.jsp?bmUID=lp7GQKL</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/latestandgreatest.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/shirtstops.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/sweaters.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/teestanks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/jackets.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/denim.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/dressesskirts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/pantsshorts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/shoes.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/jewelry.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/bags.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/intimatespajamas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/lounge.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/homegift.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/accessories.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/sunglasses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/fall2017collection.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/shopbylooks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/sezane.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxgirlsinc.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/veja.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/carhartt.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/adidas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/aceandjig.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/apieceapart.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/biltmore.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/caroncallahan.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/chimala.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/converse.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/karenwalker.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/lasbayadas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/lndr.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/loq.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/armorlux.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxhanselfrombasel.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxstillhouse.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxwinden.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/marahoffman.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/pale.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/penfield.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/rivetthread.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/soludos.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/stutterheim.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/splits59.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/tretorn.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/ullaJohnson.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/vans.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/THEMADEWELLESSENTIALS_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/longsleeve.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/shortsleeve.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/tanks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/bodysuits.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/sweatshirts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/sweatshirtsandmore.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/teetankdresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/topsblouses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/buttonuppopovershirts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/chambraydenim.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS/pullovers.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS/cardigans.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS/tanks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/Outerwear.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/Jackets.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/denim.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/leather.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/daytonightdresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/casualdresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/cocktaildresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/midimaxidresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/denimdresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/jumpsuitsrompers.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SKIRTS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SKIRTS/mini.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SKIRTS/midimaxi.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/PANTSSHORTS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/PANTSSHORTS/pants.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/PANTSSHORTS/shorts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/PANTSSHORTS/leggingssweatpants.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/lounge/tops.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/lounge/bottoms.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/lounge/sneakers.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/lounge/accessories.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/intimatespajamas/bralettes.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/intimatespajamas/undies.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/intimatespajamas/pajamas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWIM.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWIM/bikinis.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWIM/swimcoverups.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWIM/beachaccessories.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/skimmersflats.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/heels.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/oxfordloafers.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/clogs.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/weatherboots.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/sandals.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/socks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/crossbodybags.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/totes.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/backpacks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/satchels.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/duffels.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/poucheswallets.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/iphonecasestech.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/bagaccessories.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/earrings.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/necklaces.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/bracelets.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/rings.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/demifinejewelry.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/finejewelry.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/sunglasses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/sunglasses/sunglasses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/sunglasses/sunglasscases.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/hats.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/bandanas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/scarves.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/socksandtights.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/hair.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/belts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/umbrellas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/pins.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/iphonecasestech.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/candles.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/cardspaper.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/leatheraccessoriesmonogram.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/denimmonogram.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/greatgiftsunder25.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/splurgygifts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/evenmoregifts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/DENIMREPORT_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#everydaymadewell</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#totewell</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#wellheeled</t>
   </si>
 </sst>
 </file>
@@ -137,7 +841,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -154,7 +858,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -437,16 +1150,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="101.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
@@ -473,9 +1186,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="10" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
@@ -483,352 +1198,518 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -836,7 +1717,9 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -844,7 +1727,9 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -852,7 +1737,9 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -860,7 +1747,9 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -868,7 +1757,9 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -876,7 +1767,9 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -884,7 +1777,9 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -892,7 +1787,9 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -900,7 +1797,9 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -908,7 +1807,9 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -916,7 +1817,9 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -924,7 +1827,9 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -932,7 +1837,9 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -940,7 +1847,9 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -948,7 +1857,9 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -956,7 +1867,9 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -964,7 +1877,9 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -972,7 +1887,9 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -980,7 +1897,9 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -988,7 +1907,9 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -996,7 +1917,9 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1004,7 +1927,9 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1012,7 +1937,9 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1020,7 +1947,9 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1028,7 +1957,9 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1036,7 +1967,9 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1044,7 +1977,9 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1052,7 +1987,9 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1060,7 +1997,9 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1068,7 +2007,9 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1076,7 +2017,9 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1084,7 +2027,9 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1092,7 +2037,9 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1100,7 +2047,9 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -1108,7 +2057,9 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -1116,7 +2067,9 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1124,7 +2077,9 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -1132,7 +2087,9 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -1140,7 +2097,9 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -1148,7 +2107,9 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -1156,7 +2117,9 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -1164,7 +2127,9 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -1172,7 +2137,9 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -1180,7 +2147,9 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -1188,7 +2157,9 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -1196,7 +2167,9 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -1204,7 +2177,9 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -1212,7 +2187,9 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -1220,7 +2197,9 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -1228,7 +2207,9 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -1236,7 +2217,9 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -1244,7 +2227,9 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -1252,7 +2237,9 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -1260,7 +2247,9 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -1268,7 +2257,9 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -1276,7 +2267,9 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -1284,7 +2277,9 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -1292,7 +2287,9 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -1300,7 +2297,9 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -1308,7 +2307,9 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -1316,7 +2317,9 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -1324,7 +2327,9 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -1332,7 +2337,9 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -1340,7 +2347,9 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="15" t="s">
+        <v>145</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -1348,7 +2357,9 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -1356,7 +2367,9 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="15" t="s">
+        <v>147</v>
+      </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -1364,7 +2377,9 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -1372,7 +2387,9 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -1380,7 +2397,9 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="15" t="s">
+        <v>150</v>
+      </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -1388,7 +2407,9 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -1396,7 +2417,9 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -1404,7 +2427,9 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -1412,7 +2437,9 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -1420,7 +2447,9 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -1428,7 +2457,9 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -1436,7 +2467,9 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -1444,7 +2477,9 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -1452,7 +2487,9 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -1460,7 +2497,9 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -1468,7 +2507,9 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -1476,7 +2517,9 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -1484,7 +2527,9 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -1492,7 +2537,9 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -1500,7 +2547,9 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -1508,7 +2557,9 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -1516,7 +2567,9 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -1524,7 +2577,9 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -1532,7 +2587,9 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -1540,7 +2597,9 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -1548,7 +2607,9 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -1556,7 +2617,9 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="17" t="s">
+        <v>159</v>
+      </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -1564,7 +2627,9 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -1572,7 +2637,9 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -1580,7 +2647,9 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -1588,7 +2657,9 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="B141" s="17" t="s">
+        <v>162</v>
+      </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -1596,7 +2667,9 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -1604,7 +2677,9 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -1612,7 +2687,9 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -1620,7 +2697,9 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -1628,7 +2707,9 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -1636,7 +2717,9 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -1644,7 +2727,9 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -1652,7 +2737,9 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="B149" s="17" t="s">
+        <v>168</v>
+      </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -1660,7 +2747,9 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="B150" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -1668,7 +2757,9 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -1676,7 +2767,9 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -1684,7 +2777,9 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -1692,7 +2787,9 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -1700,7 +2797,9 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="B155" s="17" t="s">
+        <v>173</v>
+      </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -1708,7 +2807,9 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -1716,7 +2817,9 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -1724,7 +2827,9 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -1732,7 +2837,9 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="B159" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -1740,7 +2847,9 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="B160" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -1748,7 +2857,9 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -1756,7 +2867,9 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="17" t="s">
+        <v>180</v>
+      </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -1764,7 +2877,9 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="B163" s="17" t="s">
+        <v>181</v>
+      </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -1772,7 +2887,9 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -1780,7 +2897,9 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -1788,7 +2907,9 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -1796,7 +2917,9 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="B167" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -1804,7 +2927,9 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -1812,7 +2937,9 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -1820,7 +2947,9 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="B170" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -1828,7 +2957,9 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="B171" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -1836,7 +2967,9 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="B172" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -1844,7 +2977,9 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="B173" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -1852,7 +2987,9 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="B174" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -1860,7 +2997,9 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -1868,7 +3007,9 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="B176" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -1876,7 +3017,9 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="B177" s="17" t="s">
+        <v>194</v>
+      </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -1884,7 +3027,9 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="B178" s="17" t="s">
+        <v>195</v>
+      </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -1892,7 +3037,9 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="B179" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -1900,7 +3047,9 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="B180" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -1908,7 +3057,9 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -1916,7 +3067,9 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -1924,7 +3077,9 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="B183" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -1932,7 +3087,9 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="B184" s="17" t="s">
+        <v>197</v>
+      </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -1940,7 +3097,9 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="B185" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -1948,7 +3107,9 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="B186" s="17" t="s">
+        <v>199</v>
+      </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -1956,7 +3117,9 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="B187" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -1964,7 +3127,9 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="17" t="s">
+        <v>201</v>
+      </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -1972,7 +3137,9 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="17" t="s">
+        <v>202</v>
+      </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -1980,7 +3147,9 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="B190" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -1988,7 +3157,9 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="B191" s="17" t="s">
+        <v>203</v>
+      </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -1996,7 +3167,9 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="B192" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -2004,7 +3177,9 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="B193" s="17" t="s">
+        <v>205</v>
+      </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -2012,7 +3187,9 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="17" t="s">
+        <v>206</v>
+      </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -2020,7 +3197,9 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="B195" s="17" t="s">
+        <v>207</v>
+      </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -2028,7 +3207,9 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B196" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -2036,7 +3217,9 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -2044,7 +3227,9 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+      <c r="B198" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -2052,7 +3237,9 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+      <c r="B199" s="17" t="s">
+        <v>211</v>
+      </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -2060,7 +3247,9 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+      <c r="B200" s="17" t="s">
+        <v>212</v>
+      </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -2068,7 +3257,9 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+      <c r="B201" s="17" t="s">
+        <v>213</v>
+      </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -2076,7 +3267,9 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+      <c r="B202" s="17" t="s">
+        <v>214</v>
+      </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -2084,7 +3277,9 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="B203" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -2092,7 +3287,9 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="B204" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -2100,7 +3297,9 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="B205" s="17" t="s">
+        <v>217</v>
+      </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -2108,7 +3307,9 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="B206" s="17" t="s">
+        <v>218</v>
+      </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -2116,7 +3317,9 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+      <c r="B207" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -2124,7 +3327,9 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="B208" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -2132,7 +3337,9 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="B209" s="17" t="s">
+        <v>221</v>
+      </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -2140,7 +3347,9 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="B210" s="17" t="s">
+        <v>222</v>
+      </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -2148,7 +3357,9 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="B211" s="17" t="s">
+        <v>223</v>
+      </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -2156,7 +3367,9 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="B212" s="17" t="s">
+        <v>224</v>
+      </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -2164,7 +3377,9 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="B213" s="17" t="s">
+        <v>225</v>
+      </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -2172,7 +3387,9 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="B214" s="17" t="s">
+        <v>226</v>
+      </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -2180,7 +3397,9 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -2188,7 +3407,9 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="B216" s="17" t="s">
+        <v>228</v>
+      </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -2196,7 +3417,9 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="B217" s="17" t="s">
+        <v>229</v>
+      </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -2204,7 +3427,9 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="B218" s="17" t="s">
+        <v>230</v>
+      </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -2212,7 +3437,9 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="B219" s="17" t="s">
+        <v>231</v>
+      </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -2220,7 +3447,9 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="B220" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -2228,7 +3457,9 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="B221" s="17" t="s">
+        <v>233</v>
+      </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -2236,7 +3467,9 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="B222" s="17" t="s">
+        <v>234</v>
+      </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -2244,7 +3477,9 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="B223" s="17" t="s">
+        <v>235</v>
+      </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -2252,7 +3487,9 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="B224" s="17" t="s">
+        <v>236</v>
+      </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -2260,7 +3497,9 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="B225" s="17" t="s">
+        <v>237</v>
+      </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -2268,7 +3507,9 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="B226" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -2276,7 +3517,9 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="B227" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -2284,7 +3527,9 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="B228" s="17" t="s">
+        <v>239</v>
+      </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -2292,7 +3537,9 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="B229" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -2300,7 +3547,9 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="B230" s="17" t="s">
+        <v>240</v>
+      </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -2308,7 +3557,9 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
+      <c r="B231" s="17" t="s">
+        <v>241</v>
+      </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -2316,7 +3567,9 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+      <c r="B232" s="17" t="s">
+        <v>242</v>
+      </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -2324,267 +3577,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="B233" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Madewell.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Madewell.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\venkatakrishna-c\Desktop\CodeCheckin\20-03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5865"/>
   </bookViews>
@@ -13,8 +18,7 @@
     <sheet name="Girl" sheetId="8" r:id="rId4"/>
     <sheet name="Boys" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="362">
   <si>
     <t>Title</t>
   </si>
@@ -447,6 +451,669 @@
   </si>
   <si>
     <t>Page Load Time(MilliSec)</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/index.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/in/r/account/home?isDesktop=true&amp;bmUID=m6ymfbP</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/r/login?mode=MYACCOUNT&amp;isDesktop=true&amp;bmUID=m6RzJhP</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/r/login?isDesktop=true</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/intl/context_chooser.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/userwishlist/tutorial.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/checkout2/shoppingbag.jsp?bmUID=m6ymfbQ&amp;jcrew_atp_view=6</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/index.jsp?navLoc=top_nav</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/shopmadewell.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DENIMBAR.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWIM.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/search2/index.jsp?N=21&amp;Nsrt=3</t>
+  </si>
+  <si>
+    <t>https://blog.madewell.com/</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals.jsp?intcmp=home_p0_na</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/shopbylooks.jsp?intcmp=home_p0_lwl</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/PANTSSHORTS.jsp?intcmp=home_p1_pants</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/TRANSPORTTOTE_sm.jsp?intcmp=home_p2_transport</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/denimsizes3335_email.jsp?intcmp=home_p3_denim</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/totes/PRDOVR~F5788/F5788.jsp?intcmp=h_recs_1</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/clogs/PRDOVR~G8388/G8388.jsp?intcmp=h_recs_2</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DENIMBAR/highriseskinnyjeans/PRDOVR~H6385/H6385.jsp?intcmp=h_recs_3</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/crossbodybags/PRDOVR~G8078/G8078.jsp?intcmp=h_recs_4</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DENIMBAR/perfectvintagecollection.jsp?intcmp=home_p4_denimbar</t>
+  </si>
+  <si>
+    <t>https://blog.madewell.com/2018/03/13/from-40s-workwear-to-90s-supermodels-denim-by-the-decade/?intcmp=home_p5_blog</t>
+  </si>
+  <si>
+    <t>https://blog.madewell.com/tag/international-womens-day/?intcmp=home_p6_blog</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp?intcmp=home_p7_totewell#totewell</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/madewell_insider.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footie/ContactUs.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/order_status.jsp</t>
+  </si>
+  <si>
+    <t>https://stores.madewell.com/</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/sizecharts/main.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/shipping_handling.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/returns_exchanges.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/international_orders.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/monogramming.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/giftcard.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/promo.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_inside_scoop/ALLABOUTMADEWELL_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/dowell.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/EVENTS_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/hometownheroes.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/in/r/login?mode=MYACCOUNT&amp;isDesktop=true&amp;bmUID=m6ymfc6</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/getacatalog.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/r/account/home?isDesktop=true</t>
+  </si>
+  <si>
+    <t>https://jobs.jcrew.com/</t>
+  </si>
+  <si>
+    <t>http://investors.madewell.com/investor-relations/?ver=m</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/socialresponsibility.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/help/wholesale_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DENIMBAR/highriseskinnyjeans.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/totes.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/sandals.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/bodysuits.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/whitejeans.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/buttonuppopovershirts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/OVERALLSJUMPSUITS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/sneakers.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/wraptops.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/denim.jsp</t>
+  </si>
+  <si>
+    <t>https://twitter.com/madewell</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/madewell</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/madewell/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/madewell/</t>
+  </si>
+  <si>
+    <t>http://madewell.tumblr.com/</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/+Madewell</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/MadewellMusings</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/user/madewell</t>
+  </si>
+  <si>
+    <t>https://www.cpsc.gov/Recalls/2015/Madewell-Expands-Recall-of-Womens-Sandals/</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/termsofuse.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/privacy.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/flatpages/social_res_april4.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/footer/sitemap.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/intl/context_chooser.jsp?bmUID=m5TFbkn</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/latestandgreatest.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/shirtstops.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/sweaters.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/teestanks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/jackets.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/denim.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/dressesskirts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/pantsshorts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/shoes.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/beauty.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/jewelry.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/bags.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/intimatespajamas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/lounge.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/homegift.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/OVERALLSJUMPSUITS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/accessories.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/swim.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/newarrivals/sunglasses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/fall2017collection.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/shopbylooks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/madewellxasever.jsp?intcmp=home_p0_asever</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/sezane.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxgirlsinc.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/veja.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/carhartt.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/adidas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/aceandjig.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/apieceapart.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/biltmore.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/caroncallahan.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/chimala.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/converse.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/karenwalker.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/lasbayadas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/lndr.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/loq.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/armorlux.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxhanselfrombasel.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxstillhouse.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/madewellxwinden.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/marahoffman.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/pale.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/penfield.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/rivetthread.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/soludos.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/stutterheim.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/splits59.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/tretorn.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/ullaJohnson.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/LABELSWELOVE/vans.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/THEMADEWELLESSENTIALS_sm.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/longsleeve.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/shortsleeve.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/tanks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/sweatshirts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/sweatshirtsandmore.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/TEESANDMORE/teetankdresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/topsblouses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/chambraydenim.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHIRTSTOPS/whiteshirts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS/pullovers.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS/turtlenecks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS/cardigans.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS/cashmere.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWEATERS/tanks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/Outerwear.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/Jackets.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JACKETSANDOUTERWEAR/leather.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/daytonightdresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/casualdresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/cocktaildresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/midimaxidresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/DRESSES/denimdresses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SKIRTS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SKIRTS/mini.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SKIRTS/midimaxi.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/PANTSSHORTS.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/PANTSSHORTS/pants.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/PANTSSHORTS/shorts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/PANTSSHORTS/leggingssweatpants.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/OVERALLSJUMPSUITS/overalls.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/OVERALLSJUMPSUITS/jumpsuits.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/lounge/tops.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/lounge/bottoms.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/lounge/sneakers.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/lounge/accessories.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/intimatespajamas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/intimatespajamas/bralettes.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/intimatespajamas/undies.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/intimatespajamas/pajamas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWIM/onepieceswimsuits.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWIM/bikinis.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWIM/swimcoverups.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SWIM/beachaccessories.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/boots.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/skimmersflats.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/heels.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/oxfordloafers.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/clogs.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/weatherboots.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/SHOESANDBOOTS/socks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/crossbodybags.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/backpacks.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/satchels.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/duffels.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/poucheswallets.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/iphonecasestech.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/BAGS/bagaccessories.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/earrings.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/necklaces.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/bracelets.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/watches.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/rings.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/demifinejewelry.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/JEWELRY/finejewelry.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/sunglasses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/sunglasses/sunglasses.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/sunglasses/sunglasscases.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/hats.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/bandanas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/coldweatheraccessories.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/scarves.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/socksandtights.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/hair.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/belts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/umbrellas.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/pins.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/ACCESSORIES/iphonecasestech.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/candles.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/cardspaper.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_category/HOMEGIFT/gifts.jsp</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#denimmadewell</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#everydaymadewell</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#totewell</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/madewell_feature/OLAPICFILTER_sm.jsp#wellheeled</t>
   </si>
 </sst>
 </file>
@@ -497,7 +1164,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +1187,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -552,7 +1225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -583,6 +1256,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -1171,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K903"/>
+  <dimension ref="A1:K902"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1896,9 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="C2" s="15"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1222,7 +1911,9 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1235,7 +1926,9 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1248,7 +1941,9 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1261,7 +1956,9 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1274,7 +1971,9 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1287,7 +1986,9 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1300,7 +2001,9 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1313,7 +2016,9 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="9"/>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1326,7 +2031,9 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="9"/>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1339,7 +2046,9 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
-      <c r="B12" s="9"/>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1352,7 +2061,9 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="9"/>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1365,7 +2076,9 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="9"/>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1378,7 +2091,9 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="9"/>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1391,7 +2106,9 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="9"/>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1404,7 +2121,9 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="9"/>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1417,7 +2136,9 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1430,7 +2151,9 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="9"/>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1443,7 +2166,9 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1456,7 +2181,9 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="B21" s="9"/>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1469,7 +2196,9 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="21" t="s">
+        <v>161</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1482,7 +2211,9 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="9"/>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1495,7 +2226,9 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="9"/>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1508,7 +2241,9 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="9"/>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1521,7 +2256,9 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="9"/>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1534,7 +2271,9 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="9"/>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1547,7 +2286,9 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="9"/>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1560,7 +2301,9 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="9"/>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1573,7 +2316,9 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
-      <c r="B30" s="9"/>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1586,7 +2331,9 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
-      <c r="B31" s="1"/>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1599,7 +2346,9 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1612,7 +2361,9 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1625,7 +2376,9 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1638,7 +2391,9 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="21" t="s">
+        <v>174</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1651,7 +2406,9 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1664,7 +2421,9 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1677,7 +2436,9 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1690,7 +2451,9 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1703,7 +2466,9 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="22" t="s">
+        <v>179</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1716,7 +2481,9 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1729,7 +2496,9 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="22" t="s">
+        <v>181</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1742,7 +2511,9 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1755,7 +2526,9 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1768,7 +2541,9 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="22" t="s">
+        <v>184</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1781,7 +2556,9 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1794,7 +2571,9 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1807,7 +2586,9 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="22" t="s">
+        <v>186</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1820,7 +2601,9 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="22" t="s">
+        <v>187</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1833,7 +2616,9 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1846,7 +2631,9 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="24" t="s">
+        <v>189</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1859,7 +2646,9 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="22" t="s">
+        <v>190</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1872,7 +2661,9 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1885,7 +2676,9 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="22" t="s">
+        <v>146</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1898,7 +2691,9 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="22" t="s">
+        <v>191</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1911,7 +2706,9 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="22" t="s">
+        <v>192</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1924,7 +2721,9 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="22" t="s">
+        <v>193</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1937,7 +2736,9 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="22" t="s">
+        <v>194</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1950,7 +2751,9 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="22" t="s">
+        <v>195</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1963,7 +2766,9 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1976,7 +2781,9 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="25" t="s">
+        <v>154</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1989,7 +2796,9 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="26" t="s">
+        <v>197</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2002,7 +2811,9 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="26" t="s">
+        <v>198</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2015,7 +2826,9 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="26" t="s">
+        <v>199</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2028,7 +2841,9 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="22" t="s">
+        <v>200</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2041,7 +2856,9 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2054,7 +2871,9 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2067,7 +2886,9 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2080,7 +2901,9 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2093,7 +2916,9 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2106,7 +2931,9 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="23" t="s">
+        <v>206</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2119,7 +2946,9 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2132,7 +2961,9 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" t="s">
+        <v>207</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2145,7 +2976,9 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" t="s">
+        <v>208</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2158,7 +2991,9 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" t="s">
+        <v>209</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2171,7 +3006,9 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" t="s">
+        <v>210</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2184,7 +3021,9 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" t="s">
+        <v>211</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2197,7 +3036,9 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" t="s">
+        <v>212</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2210,7 +3051,9 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" t="s">
+        <v>213</v>
+      </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2223,7 +3066,9 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" t="s">
+        <v>214</v>
+      </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2236,7 +3081,9 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2249,7 +3096,9 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2262,7 +3111,9 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2275,7 +3126,9 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2288,7 +3141,9 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" t="s">
+        <v>218</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2301,7 +3156,9 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" t="s">
+        <v>219</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2314,7 +3171,9 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2327,7 +3186,9 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2340,7 +3201,9 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2353,7 +3216,9 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2366,7 +3231,9 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2379,7 +3246,9 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2392,7 +3261,9 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2405,7 +3276,9 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2418,7 +3291,9 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2431,7 +3306,9 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2444,7 +3321,9 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2457,7 +3336,9 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" t="s">
+        <v>230</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -2470,7 +3351,9 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2483,7 +3366,9 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2496,7 +3381,9 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2509,7 +3396,9 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -2522,7 +3411,9 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -2535,7 +3426,9 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" t="s">
+        <v>236</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -2548,7 +3441,9 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -2561,7 +3456,9 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" t="s">
+        <v>238</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -2574,7 +3471,9 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -2587,7 +3486,9 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -2600,7 +3501,9 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="28" t="s">
+        <v>241</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -2613,7 +3516,9 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="29" t="s">
+        <v>242</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -2626,7 +3531,9 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" t="s">
+        <v>243</v>
+      </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -2637,9 +3544,11 @@
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="29" t="s">
+        <v>244</v>
+      </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -2650,9 +3559,11 @@
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="29" t="s">
+        <v>245</v>
+      </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -2663,9 +3574,11 @@
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="29" t="s">
+        <v>246</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -2676,9 +3589,11 @@
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="29" t="s">
+        <v>247</v>
+      </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -2689,9 +3604,11 @@
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -2702,9 +3619,11 @@
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="29" t="s">
+        <v>249</v>
+      </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -2715,9 +3634,11 @@
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="29" t="s">
+        <v>250</v>
+      </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -2728,9 +3649,11 @@
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -2741,9 +3664,11 @@
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="29" t="s">
+        <v>252</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -2754,9 +3679,11 @@
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="29" t="s">
+        <v>253</v>
+      </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -2767,9 +3694,11 @@
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -2780,9 +3709,11 @@
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -2793,9 +3724,11 @@
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -2806,9 +3739,11 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="29" t="s">
+        <v>257</v>
+      </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -2819,9 +3754,11 @@
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="29" t="s">
+        <v>258</v>
+      </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -2832,9 +3769,11 @@
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="29" t="s">
+        <v>259</v>
+      </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -2845,9 +3784,11 @@
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="29" t="s">
+        <v>260</v>
+      </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -2858,9 +3799,11 @@
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="29" t="s">
+        <v>261</v>
+      </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -2871,9 +3814,11 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="29" t="s">
+        <v>262</v>
+      </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -2884,9 +3829,11 @@
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="29" t="s">
+        <v>263</v>
+      </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -2897,9 +3844,11 @@
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="29" t="s">
+        <v>264</v>
+      </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -2910,9 +3859,11 @@
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="29" t="s">
+        <v>265</v>
+      </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -2923,9 +3874,11 @@
       <c r="J133" s="12"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="29" t="s">
+        <v>266</v>
+      </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -2936,9 +3889,11 @@
       <c r="J134" s="12"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -2949,9 +3904,11 @@
       <c r="J135" s="12"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -2962,9 +3919,11 @@
       <c r="J136" s="12"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="29" t="s">
+        <v>269</v>
+      </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -2975,9 +3934,11 @@
       <c r="J137" s="12"/>
       <c r="K137" s="12"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="29" t="s">
+        <v>270</v>
+      </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -2988,9 +3949,11 @@
       <c r="J138" s="12"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="29" t="s">
+        <v>271</v>
+      </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3001,9 +3964,11 @@
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="29" t="s">
+        <v>272</v>
+      </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -3016,7 +3981,9 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="B141" s="30" t="s">
+        <v>273</v>
+      </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -3029,7 +3996,9 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="14" t="s">
+        <v>182</v>
+      </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -3042,7 +4011,9 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -3055,7 +4026,9 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -3068,7 +4041,9 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -3081,7 +4056,9 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -3094,7 +4071,9 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -3107,7 +4086,9 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -3120,7 +4101,9 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="B149" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -3133,7 +4116,9 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="B150" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -3146,7 +4131,9 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -3159,7 +4146,9 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -3172,7 +4161,9 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="31" t="s">
+        <v>152</v>
+      </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -3185,7 +4176,9 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="31" t="s">
+        <v>274</v>
+      </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -3198,7 +4191,9 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="B155" s="31" t="s">
+        <v>275</v>
+      </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -3211,7 +4206,9 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="31" t="s">
+        <v>276</v>
+      </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -3224,7 +4221,9 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="31" t="s">
+        <v>200</v>
+      </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -3237,7 +4236,9 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="31" t="s">
+        <v>277</v>
+      </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -3250,7 +4251,9 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="B159" s="31" t="s">
+        <v>278</v>
+      </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -3263,7 +4266,9 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="B160" s="31" t="s">
+        <v>279</v>
+      </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -3276,7 +4281,9 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="31" t="s">
+        <v>153</v>
+      </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -3289,7 +4296,9 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="31" t="s">
+        <v>280</v>
+      </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -3302,7 +4311,9 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="B163" s="31" t="s">
+        <v>202</v>
+      </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -3315,7 +4326,9 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="31" t="s">
+        <v>281</v>
+      </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -3328,7 +4341,9 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" t="s">
+        <v>282</v>
+      </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -3341,7 +4356,9 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="31" t="s">
+        <v>283</v>
+      </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -3354,7 +4371,9 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="B167" s="31" t="s">
+        <v>284</v>
+      </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -3367,7 +4386,9 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" t="s">
+        <v>285</v>
+      </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -3380,7 +4401,9 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="31" t="s">
+        <v>286</v>
+      </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -3393,7 +4416,9 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="B170" t="s">
+        <v>287</v>
+      </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -3406,7 +4431,9 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="B171" s="31" t="s">
+        <v>288</v>
+      </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -3419,7 +4446,9 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="B172" s="31" t="s">
+        <v>289</v>
+      </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -3432,7 +4461,9 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="B173" s="31" t="s">
+        <v>290</v>
+      </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -3445,7 +4476,9 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="B174" s="31" t="s">
+        <v>291</v>
+      </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -3458,7 +4491,9 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="31" t="s">
+        <v>206</v>
+      </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -3471,7 +4506,9 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="B176" s="31" t="s">
+        <v>292</v>
+      </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -3484,7 +4521,9 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="B177" s="31" t="s">
+        <v>154</v>
+      </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -3497,7 +4536,9 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="B178" s="31" t="s">
+        <v>293</v>
+      </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -3510,7 +4551,9 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="B179" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -3523,7 +4566,9 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="B180" s="31" t="s">
+        <v>295</v>
+      </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -3536,7 +4581,9 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="31" t="s">
+        <v>296</v>
+      </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -3549,7 +4596,9 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="31" t="s">
+        <v>297</v>
+      </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -3562,7 +4611,9 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="B183" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -3575,7 +4626,9 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="B184" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -3588,7 +4641,9 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="B185" s="31" t="s">
+        <v>300</v>
+      </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -3601,7 +4656,9 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="B186" s="31" t="s">
+        <v>301</v>
+      </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -3614,7 +4671,9 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="B187" s="31" t="s">
+        <v>302</v>
+      </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -3627,7 +4686,9 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="31" t="s">
+        <v>303</v>
+      </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -3640,7 +4701,9 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="31" t="s">
+        <v>304</v>
+      </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -3653,7 +4716,9 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="B190" t="s">
+        <v>305</v>
+      </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -3666,7 +4731,9 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="B191" t="s">
+        <v>306</v>
+      </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -3679,7 +4746,9 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="B192" s="31" t="s">
+        <v>307</v>
+      </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -3692,7 +4761,9 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="B193" s="31" t="s">
+        <v>308</v>
+      </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -3705,7 +4776,9 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -3718,7 +4791,9 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="B195" s="31" t="s">
+        <v>310</v>
+      </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -3731,7 +4806,9 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B196" t="s">
+        <v>311</v>
+      </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -3744,7 +4821,9 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" t="s">
+        <v>312</v>
+      </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -3757,7 +4836,9 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+      <c r="B198" t="s">
+        <v>313</v>
+      </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -3770,7 +4851,9 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+      <c r="B199" t="s">
+        <v>314</v>
+      </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -3783,7 +4866,9 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+      <c r="B200" s="31" t="s">
+        <v>158</v>
+      </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -3796,7 +4881,9 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+      <c r="B201" t="s">
+        <v>315</v>
+      </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -3809,7 +4896,9 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+      <c r="B202" s="31" t="s">
+        <v>316</v>
+      </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -3822,7 +4911,9 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="B203" s="31" t="s">
+        <v>317</v>
+      </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -3835,7 +4926,9 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="B204" s="31" t="s">
+        <v>318</v>
+      </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -3848,7 +4941,9 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="B205" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -3861,7 +4956,9 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="B206" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -3874,7 +4971,9 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+      <c r="B207" s="31" t="s">
+        <v>319</v>
+      </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -3887,7 +4986,9 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="B208" s="31" t="s">
+        <v>204</v>
+      </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -3900,7 +5001,9 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="B209" s="31" t="s">
+        <v>320</v>
+      </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -3913,7 +5016,9 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="B210" s="31" t="s">
+        <v>321</v>
+      </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -3926,7 +5031,9 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="B211" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -3939,7 +5046,9 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="B212" s="31" t="s">
+        <v>323</v>
+      </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -3952,7 +5061,9 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="B213" s="31" t="s">
+        <v>324</v>
+      </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -3965,7 +5076,9 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="B214" s="31" t="s">
+        <v>199</v>
+      </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -3978,7 +5091,9 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="31" t="s">
+        <v>325</v>
+      </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -3991,7 +5106,9 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="B216" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -4004,7 +5121,9 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="B217" s="31" t="s">
+        <v>326</v>
+      </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -4017,7 +5136,9 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="B218" s="31" t="s">
+        <v>198</v>
+      </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -4030,7 +5151,9 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="B219" s="31" t="s">
+        <v>327</v>
+      </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -4043,7 +5166,9 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="B220" s="31" t="s">
+        <v>328</v>
+      </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -4056,7 +5181,9 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="B221" s="31" t="s">
+        <v>329</v>
+      </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -4069,7 +5196,9 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="B222" s="31" t="s">
+        <v>330</v>
+      </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -4082,7 +5211,9 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="B223" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -4095,7 +5226,9 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="B224" s="31" t="s">
+        <v>332</v>
+      </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -4108,7 +5241,9 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="B225" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -4121,7 +5256,9 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="B226" s="31" t="s">
+        <v>333</v>
+      </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -4134,7 +5271,9 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="B227" s="31" t="s">
+        <v>334</v>
+      </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -4147,7 +5286,9 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="B228" s="31" t="s">
+        <v>335</v>
+      </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -4160,7 +5301,9 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="B229" t="s">
+        <v>336</v>
+      </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -4173,7 +5316,9 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="B230" s="31" t="s">
+        <v>337</v>
+      </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -4186,7 +5331,9 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
+      <c r="B231" s="31" t="s">
+        <v>338</v>
+      </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -4199,7 +5346,9 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+      <c r="B232" s="31" t="s">
+        <v>339</v>
+      </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -4212,7 +5361,9 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="B233" s="31" t="s">
+        <v>340</v>
+      </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -4225,7 +5376,9 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+      <c r="B234" s="31" t="s">
+        <v>341</v>
+      </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -4238,7 +5391,9 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+      <c r="B235" s="31" t="s">
+        <v>342</v>
+      </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -4251,7 +5406,9 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
+      <c r="B236" s="31" t="s">
+        <v>343</v>
+      </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -4264,7 +5421,9 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+      <c r="B237" s="31" t="s">
+        <v>344</v>
+      </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -4277,7 +5436,9 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
+      <c r="B238" s="31" t="s">
+        <v>345</v>
+      </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -4290,7 +5451,9 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
+      <c r="B239" t="s">
+        <v>346</v>
+      </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -4303,7 +5466,9 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
+      <c r="B240" s="31" t="s">
+        <v>347</v>
+      </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -4316,7 +5481,9 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
+      <c r="B241" s="31" t="s">
+        <v>348</v>
+      </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -4329,7 +5496,9 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
+      <c r="B242" s="31" t="s">
+        <v>349</v>
+      </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -4342,7 +5511,9 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
+      <c r="B243" s="31" t="s">
+        <v>350</v>
+      </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -4355,7 +5526,9 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
+      <c r="B244" s="31" t="s">
+        <v>351</v>
+      </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -4368,7 +5541,9 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
+      <c r="B245" s="31" t="s">
+        <v>352</v>
+      </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -4381,7 +5556,9 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+      <c r="B246" s="31" t="s">
+        <v>353</v>
+      </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -4394,7 +5571,9 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
+      <c r="B247" s="31" t="s">
+        <v>354</v>
+      </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -4407,7 +5586,9 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
+      <c r="B248" s="31" t="s">
+        <v>355</v>
+      </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -4420,7 +5601,9 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
+      <c r="B249" s="31" t="s">
+        <v>356</v>
+      </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -4433,7 +5616,9 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
+      <c r="B250" t="s">
+        <v>357</v>
+      </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -4446,7 +5631,9 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
+      <c r="B251" s="31" t="s">
+        <v>160</v>
+      </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -4459,7 +5646,9 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
+      <c r="B252" s="31" t="s">
+        <v>358</v>
+      </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -4472,7 +5661,9 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
+      <c r="B253" s="31" t="s">
+        <v>359</v>
+      </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -4485,7 +5676,9 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
+      <c r="B254" s="31" t="s">
+        <v>360</v>
+      </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -4498,7 +5691,9 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
+      <c r="B255" s="31" t="s">
+        <v>361</v>
+      </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -4511,7 +5706,9 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
+      <c r="B256" s="31" t="s">
+        <v>185</v>
+      </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -4522,1077 +5719,502 @@
       <c r="J256" s="12"/>
       <c r="K256" s="12"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-      <c r="G257" s="12"/>
-      <c r="H257" s="12"/>
-      <c r="I257" s="12"/>
-      <c r="J257" s="12"/>
-      <c r="K257" s="12"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-      <c r="G258" s="12"/>
-      <c r="H258" s="12"/>
-      <c r="I258" s="12"/>
-      <c r="J258" s="12"/>
-      <c r="K258" s="12"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-      <c r="G259" s="12"/>
-      <c r="H259" s="12"/>
-      <c r="I259" s="12"/>
-      <c r="J259" s="12"/>
-      <c r="K259" s="12"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-      <c r="G260" s="12"/>
-      <c r="H260" s="12"/>
-      <c r="I260" s="12"/>
-      <c r="J260" s="12"/>
-      <c r="K260" s="12"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-      <c r="G261" s="12"/>
-      <c r="H261" s="12"/>
-      <c r="I261" s="12"/>
-      <c r="J261" s="12"/>
-      <c r="K261" s="12"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-      <c r="G262" s="12"/>
-      <c r="H262" s="12"/>
-      <c r="I262" s="12"/>
-      <c r="J262" s="12"/>
-      <c r="K262" s="12"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-      <c r="G263" s="12"/>
-      <c r="H263" s="12"/>
-      <c r="I263" s="12"/>
-      <c r="J263" s="12"/>
-      <c r="K263" s="12"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-      <c r="G264" s="12"/>
-      <c r="H264" s="12"/>
-      <c r="I264" s="12"/>
-      <c r="J264" s="12"/>
-      <c r="K264" s="12"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
-      <c r="G265" s="12"/>
-      <c r="H265" s="12"/>
-      <c r="I265" s="12"/>
-      <c r="J265" s="12"/>
-      <c r="K265" s="12"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
-      <c r="G266" s="12"/>
-      <c r="H266" s="12"/>
-      <c r="I266" s="12"/>
-      <c r="J266" s="12"/>
-      <c r="K266" s="12"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
-      <c r="G267" s="12"/>
-      <c r="H267" s="12"/>
-      <c r="I267" s="12"/>
-      <c r="J267" s="12"/>
-      <c r="K267" s="12"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
-      <c r="G268" s="12"/>
-      <c r="H268" s="12"/>
-      <c r="I268" s="12"/>
-      <c r="J268" s="12"/>
-      <c r="K268" s="12"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="12"/>
-      <c r="H269" s="12"/>
-      <c r="I269" s="12"/>
-      <c r="J269" s="12"/>
-      <c r="K269" s="12"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-      <c r="G270" s="12"/>
-      <c r="H270" s="12"/>
-      <c r="I270" s="12"/>
-      <c r="J270" s="12"/>
-      <c r="K270" s="12"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="12"/>
-      <c r="H271" s="12"/>
-      <c r="I271" s="12"/>
-      <c r="J271" s="12"/>
-      <c r="K271" s="12"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-      <c r="G272" s="12"/>
-      <c r="H272" s="12"/>
-      <c r="I272" s="12"/>
-      <c r="J272" s="12"/>
-      <c r="K272" s="12"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
-      <c r="G273" s="12"/>
-      <c r="H273" s="12"/>
-      <c r="I273" s="12"/>
-      <c r="J273" s="12"/>
-      <c r="K273" s="12"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
-      <c r="G274" s="12"/>
-      <c r="H274" s="12"/>
-      <c r="I274" s="12"/>
-      <c r="J274" s="12"/>
-      <c r="K274" s="12"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
-      <c r="G275" s="12"/>
-      <c r="H275" s="12"/>
-      <c r="I275" s="12"/>
-      <c r="J275" s="12"/>
-      <c r="K275" s="12"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
-      <c r="G276" s="12"/>
-      <c r="H276" s="12"/>
-      <c r="I276" s="12"/>
-      <c r="J276" s="12"/>
-      <c r="K276" s="12"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
-      <c r="G277" s="12"/>
-      <c r="H277" s="12"/>
-      <c r="I277" s="12"/>
-      <c r="J277" s="12"/>
-      <c r="K277" s="12"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
-      <c r="G278" s="12"/>
-      <c r="H278" s="12"/>
-      <c r="I278" s="12"/>
-      <c r="J278" s="12"/>
-      <c r="K278" s="12"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
-      <c r="G279" s="12"/>
-      <c r="H279" s="12"/>
-      <c r="I279" s="12"/>
-      <c r="J279" s="12"/>
-      <c r="K279" s="12"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
-      <c r="G280" s="12"/>
-      <c r="H280" s="12"/>
-      <c r="I280" s="12"/>
-      <c r="J280" s="12"/>
-      <c r="K280" s="12"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
-      <c r="G281" s="12"/>
-      <c r="H281" s="12"/>
-      <c r="I281" s="12"/>
-      <c r="J281" s="12"/>
-      <c r="K281" s="12"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="1"/>
-      <c r="G282" s="12"/>
-      <c r="H282" s="12"/>
-      <c r="I282" s="12"/>
-      <c r="J282" s="12"/>
-      <c r="K282" s="12"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
-      <c r="G283" s="12"/>
-      <c r="H283" s="12"/>
-      <c r="I283" s="12"/>
-      <c r="J283" s="12"/>
-      <c r="K283" s="12"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-      <c r="G284" s="12"/>
-      <c r="H284" s="12"/>
-      <c r="I284" s="12"/>
-      <c r="J284" s="12"/>
-      <c r="K284" s="12"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
-      <c r="G285" s="12"/>
-      <c r="H285" s="12"/>
-      <c r="I285" s="12"/>
-      <c r="J285" s="12"/>
-      <c r="K285" s="12"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
-      <c r="G286" s="12"/>
-      <c r="H286" s="12"/>
-      <c r="I286" s="12"/>
-      <c r="J286" s="12"/>
-      <c r="K286" s="12"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
-      <c r="G287" s="12"/>
-      <c r="H287" s="12"/>
-      <c r="I287" s="12"/>
-      <c r="J287" s="12"/>
-      <c r="K287" s="12"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
-      <c r="F288" s="1"/>
-      <c r="G288" s="12"/>
-      <c r="H288" s="12"/>
-      <c r="I288" s="12"/>
-      <c r="J288" s="12"/>
-      <c r="K288" s="12"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
-      <c r="G289" s="12"/>
-      <c r="H289" s="12"/>
-      <c r="I289" s="12"/>
-      <c r="J289" s="12"/>
-      <c r="K289" s="12"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
-      <c r="G290" s="12"/>
-      <c r="H290" s="12"/>
-      <c r="I290" s="12"/>
-      <c r="J290" s="12"/>
-      <c r="K290" s="12"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-      <c r="G291" s="12"/>
-      <c r="H291" s="12"/>
-      <c r="I291" s="12"/>
-      <c r="J291" s="12"/>
-      <c r="K291" s="12"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
-      <c r="F292" s="1"/>
-      <c r="G292" s="12"/>
-      <c r="H292" s="12"/>
-      <c r="I292" s="12"/>
-      <c r="J292" s="12"/>
-      <c r="K292" s="12"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
-      <c r="G293" s="12"/>
-      <c r="H293" s="12"/>
-      <c r="I293" s="12"/>
-      <c r="J293" s="12"/>
-      <c r="K293" s="12"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
-      <c r="G294" s="12"/>
-      <c r="H294" s="12"/>
-      <c r="I294" s="12"/>
-      <c r="J294" s="12"/>
-      <c r="K294" s="12"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="12"/>
-      <c r="H295" s="12"/>
-      <c r="I295" s="12"/>
-      <c r="J295" s="12"/>
-      <c r="K295" s="12"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
-      <c r="G296" s="12"/>
-      <c r="H296" s="12"/>
-      <c r="I296" s="12"/>
-      <c r="J296" s="12"/>
-      <c r="K296" s="12"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-      <c r="G297" s="12"/>
-      <c r="H297" s="12"/>
-      <c r="I297" s="12"/>
-      <c r="J297" s="12"/>
-      <c r="K297" s="12"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
-      <c r="G298" s="12"/>
-      <c r="H298" s="12"/>
-      <c r="I298" s="12"/>
-      <c r="J298" s="12"/>
-      <c r="K298" s="12"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-      <c r="G299" s="12"/>
-      <c r="H299" s="12"/>
-      <c r="I299" s="12"/>
-      <c r="J299" s="12"/>
-      <c r="K299" s="12"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
-      <c r="G300" s="12"/>
-      <c r="H300" s="12"/>
-      <c r="I300" s="12"/>
-      <c r="J300" s="12"/>
-      <c r="K300" s="12"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
-      <c r="G301" s="12"/>
-      <c r="H301" s="12"/>
-      <c r="I301" s="12"/>
-      <c r="J301" s="12"/>
-      <c r="K301" s="12"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
-      <c r="G302" s="12"/>
-      <c r="H302" s="12"/>
-      <c r="I302" s="12"/>
-      <c r="J302" s="12"/>
-      <c r="K302" s="12"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
-      <c r="G303" s="12"/>
-      <c r="H303" s="12"/>
-      <c r="I303" s="12"/>
-      <c r="J303" s="12"/>
-      <c r="K303" s="12"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
-      <c r="D304" s="1"/>
-      <c r="E304" s="1"/>
-      <c r="F304" s="1"/>
-      <c r="G304" s="12"/>
-      <c r="H304" s="12"/>
-      <c r="I304" s="12"/>
-      <c r="J304" s="12"/>
-      <c r="K304" s="12"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-      <c r="G305" s="12"/>
-      <c r="H305" s="12"/>
-      <c r="I305" s="12"/>
-      <c r="J305" s="12"/>
-      <c r="K305" s="12"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
-      <c r="G306" s="12"/>
-      <c r="H306" s="12"/>
-      <c r="I306" s="12"/>
-      <c r="J306" s="12"/>
-      <c r="K306" s="12"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
-      <c r="G307" s="12"/>
-      <c r="H307" s="12"/>
-      <c r="I307" s="12"/>
-      <c r="J307" s="12"/>
-      <c r="K307" s="12"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
-      <c r="G308" s="12"/>
-      <c r="H308" s="12"/>
-      <c r="I308" s="12"/>
-      <c r="J308" s="12"/>
-      <c r="K308" s="12"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
-      <c r="G309" s="12"/>
-      <c r="H309" s="12"/>
-      <c r="I309" s="12"/>
-      <c r="J309" s="12"/>
-      <c r="K309" s="12"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
-      <c r="G310" s="12"/>
-      <c r="H310" s="12"/>
-      <c r="I310" s="12"/>
-      <c r="J310" s="12"/>
-      <c r="K310" s="12"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
-      <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
-      <c r="G311" s="12"/>
-      <c r="H311" s="12"/>
-      <c r="I311" s="12"/>
-      <c r="J311" s="12"/>
-      <c r="K311" s="12"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
-      <c r="G312" s="12"/>
-      <c r="H312" s="12"/>
-      <c r="I312" s="12"/>
-      <c r="J312" s="12"/>
-      <c r="K312" s="12"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="12"/>
-      <c r="H313" s="12"/>
-      <c r="I313" s="12"/>
-      <c r="J313" s="12"/>
-      <c r="K313" s="12"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
-      <c r="G314" s="12"/>
-      <c r="H314" s="12"/>
-      <c r="I314" s="12"/>
-      <c r="J314" s="12"/>
-      <c r="K314" s="12"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
-      <c r="G315" s="12"/>
-      <c r="H315" s="12"/>
-      <c r="I315" s="12"/>
-      <c r="J315" s="12"/>
-      <c r="K315" s="12"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
-      <c r="G316" s="12"/>
-      <c r="H316" s="12"/>
-      <c r="I316" s="12"/>
-      <c r="J316" s="12"/>
-      <c r="K316" s="12"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
-      <c r="E317" s="1"/>
-      <c r="F317" s="1"/>
-      <c r="G317" s="12"/>
-      <c r="H317" s="12"/>
-      <c r="I317" s="12"/>
-      <c r="J317" s="12"/>
-      <c r="K317" s="12"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
-      <c r="G318" s="12"/>
-      <c r="H318" s="12"/>
-      <c r="I318" s="12"/>
-      <c r="J318" s="12"/>
-      <c r="K318" s="12"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="12"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="12"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="12"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="12"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="12"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="12"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="12"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="12"/>
+      <c r="B267" s="12"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="12"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="12"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="12"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="12"/>
+      <c r="B271" s="12"/>
+      <c r="C271" s="12"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="12"/>
+      <c r="B272" s="12"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="12"/>
+      <c r="B273" s="12"/>
+      <c r="C273" s="12"/>
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="12"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="12"/>
+      <c r="B275" s="12"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="12"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="12"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="12"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="12"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="12"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="12"/>
+      <c r="B281" s="12"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="12"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="12"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="12"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="12"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="12"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="12"/>
+      <c r="B287" s="12"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="12"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="12"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="12"/>
+      <c r="B291" s="12"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="12"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="12"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="12"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="12"/>
+      <c r="B295" s="12"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="12"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="12"/>
+      <c r="B297" s="12"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="12"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="12"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="12"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="12"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="12"/>
+      <c r="B301" s="12"/>
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="12"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="12"/>
+      <c r="B303" s="12"/>
+      <c r="C303" s="12"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="12"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="12"/>
+      <c r="B305" s="12"/>
+      <c r="C305" s="12"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="12"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="12"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="12"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="12"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="12"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="12"/>
+      <c r="B309" s="12"/>
+      <c r="C309" s="12"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="12"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="12"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="12"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="12"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="12"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="12"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="12"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="12"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="12"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="12"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="12"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="12"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="12"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="12"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="12"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="12"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="12"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="12"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="12"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
-      <c r="F319" s="12"/>
-      <c r="G319" s="12"/>
-      <c r="H319" s="12"/>
-      <c r="I319" s="12"/>
-      <c r="J319" s="12"/>
-      <c r="K319" s="12"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
-      <c r="F320" s="12"/>
-      <c r="G320" s="12"/>
-      <c r="H320" s="12"/>
-      <c r="I320" s="12"/>
-      <c r="J320" s="12"/>
-      <c r="K320" s="12"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
-      <c r="F321" s="12"/>
-      <c r="G321" s="12"/>
-      <c r="H321" s="12"/>
-      <c r="I321" s="12"/>
-      <c r="J321" s="12"/>
-      <c r="K321" s="12"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
-      <c r="F322" s="12"/>
-      <c r="G322" s="12"/>
-      <c r="H322" s="12"/>
-      <c r="I322" s="12"/>
-      <c r="J322" s="12"/>
-      <c r="K322" s="12"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
-      <c r="F323" s="12"/>
-      <c r="G323" s="12"/>
-      <c r="H323" s="12"/>
-      <c r="I323" s="12"/>
-      <c r="J323" s="12"/>
-      <c r="K323" s="12"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
-      <c r="F324" s="12"/>
-      <c r="G324" s="12"/>
-      <c r="H324" s="12"/>
-      <c r="I324" s="12"/>
-      <c r="J324" s="12"/>
-      <c r="K324" s="12"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
-      <c r="F325" s="12"/>
-      <c r="G325" s="12"/>
-      <c r="H325" s="12"/>
-      <c r="I325" s="12"/>
-      <c r="J325" s="12"/>
-      <c r="K325" s="12"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
       <c r="D326" s="12"/>
       <c r="E326" s="12"/>
-      <c r="F326" s="12"/>
-      <c r="G326" s="12"/>
-      <c r="H326" s="12"/>
-      <c r="I326" s="12"/>
-      <c r="J326" s="12"/>
-      <c r="K326" s="12"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
       <c r="E327" s="12"/>
-      <c r="F327" s="12"/>
-      <c r="G327" s="12"/>
-      <c r="H327" s="12"/>
-      <c r="I327" s="12"/>
-      <c r="J327" s="12"/>
-      <c r="K327" s="12"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" s="12"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="12"/>
-      <c r="D328" s="12"/>
-      <c r="E328" s="12"/>
-      <c r="F328" s="12"/>
-      <c r="G328" s="12"/>
-      <c r="H328" s="12"/>
-      <c r="I328" s="12"/>
-      <c r="J328" s="12"/>
-      <c r="K328" s="12"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="12"/>
-      <c r="B329" s="12"/>
-      <c r="C329" s="12"/>
-      <c r="D329" s="12"/>
-      <c r="E329" s="12"/>
-      <c r="F329" s="12"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="12"/>
-      <c r="B330" s="12"/>
-      <c r="C330" s="12"/>
-      <c r="D330" s="12"/>
-      <c r="E330" s="12"/>
-      <c r="F330" s="12"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="12"/>
-      <c r="B331" s="12"/>
-      <c r="C331" s="12"/>
-      <c r="D331" s="12"/>
-      <c r="E331" s="12"/>
-      <c r="F331" s="12"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="12"/>
-      <c r="B332" s="12"/>
-      <c r="C332" s="12"/>
-      <c r="D332" s="12"/>
-      <c r="E332" s="12"/>
-      <c r="F332" s="12"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="12"/>
-      <c r="B333" s="12"/>
-      <c r="C333" s="12"/>
-      <c r="D333" s="12"/>
-      <c r="E333" s="12"/>
-      <c r="F333" s="12"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="12"/>
-      <c r="B334" s="12"/>
-      <c r="C334" s="12"/>
-      <c r="D334" s="12"/>
-      <c r="E334" s="12"/>
-      <c r="F334" s="12"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="12"/>
-      <c r="B335" s="12"/>
-      <c r="C335" s="12"/>
-      <c r="D335" s="12"/>
-      <c r="E335" s="12"/>
-      <c r="F335" s="12"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="12"/>
-      <c r="B336" s="12"/>
-      <c r="C336" s="12"/>
-      <c r="D336" s="12"/>
-      <c r="E336" s="12"/>
-      <c r="F336" s="12"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="12"/>
-      <c r="B337" s="12"/>
-      <c r="C337" s="12"/>
-      <c r="D337" s="12"/>
-      <c r="E337" s="12"/>
-      <c r="F337" s="12"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="12"/>
-      <c r="B338" s="12"/>
-      <c r="C338" s="12"/>
-      <c r="D338" s="12"/>
-      <c r="E338" s="12"/>
-      <c r="F338" s="12"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="12"/>
-      <c r="B339" s="12"/>
-      <c r="C339" s="12"/>
-      <c r="D339" s="12"/>
-      <c r="E339" s="12"/>
-      <c r="F339" s="12"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="12"/>
-      <c r="B340" s="12"/>
-      <c r="C340" s="12"/>
-      <c r="D340" s="12"/>
-      <c r="E340" s="12"/>
-      <c r="F340" s="12"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="12"/>
-      <c r="B341" s="12"/>
-      <c r="C341" s="12"/>
-      <c r="D341" s="12"/>
-      <c r="E341" s="12"/>
-      <c r="F341" s="12"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="12"/>
-      <c r="B342" s="12"/>
-      <c r="C342" s="12"/>
-      <c r="D342" s="12"/>
-      <c r="E342" s="12"/>
-      <c r="F342" s="12"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="12"/>
-      <c r="B343" s="12"/>
-      <c r="C343" s="12"/>
-      <c r="D343" s="12"/>
-      <c r="E343" s="12"/>
-      <c r="F343" s="12"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="12"/>
-      <c r="B344" s="12"/>
-      <c r="C344" s="12"/>
-      <c r="D344" s="12"/>
-      <c r="E344" s="12"/>
-      <c r="F344" s="12"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="12"/>
-      <c r="B345" s="12"/>
-      <c r="C345" s="12"/>
-      <c r="D345" s="12"/>
-      <c r="E345" s="12"/>
-      <c r="F345" s="12"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
@@ -10049,14 +10671,6 @@
       <c r="D902" s="12"/>
       <c r="E902" s="12"/>
       <c r="F902" s="12"/>
-    </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A903" s="12"/>
-      <c r="B903" s="12"/>
-      <c r="C903" s="12"/>
-      <c r="D903" s="12"/>
-      <c r="E903" s="12"/>
-      <c r="F903" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
